--- a/biology/Zoologie/Callipogonini/Callipogonini.xlsx
+++ b/biology/Zoologie/Callipogonini/Callipogonini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Callipogonini sont une tribu de Coléoptères de la famille des Cérambycidés, de la sous-famille des Prioninae.
 </t>
@@ -511,11 +523,48 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La tribu a été décrite par l'entomologiste James Thomson en 1860.
-Synonymie
-Callipogonitae (Thomson, 1860)
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La tribu a été décrite par l'entomologiste James Thomson en 1860.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Callipogonini</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callipogonini</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Callipogonitae (Thomson, 1860)
 Callipogonites (Thomson, 1860)
 Enoploceritae (Thomson, 1864)
 Anacanthini  (Thomson, 1864)
@@ -529,34 +578,39 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Callipogonini</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Callipogonini</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Liste des sous-tribus et des genres [1]
-Sous-tribu des Hopliderina (Thomson, 1864)
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des sous-tribus et des genres [1]</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Sous-tribu des Hopliderina (Thomson, 1864)
 Cubaecola (Lameere, 1912)
 Derelophis (Quentin &amp; Villiers, 1972)
 Hoplideres (Serville, 1832)
@@ -582,37 +636,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Callipogonini</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Callipogonini</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Morphologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Callipogonini sont reconnaissables parmi les autres Prioninae pour le prothorax large et rectangulaire chez les mâles, souvent avec aussi deux plaques triangulaires luisantes sur le disque, et le troisième article des antennes très allongé. Ils diffèrent des Macrotomini, avec lesquels ils sont étroitement alliés, pour avoir les yeux fortement réniformes. Les élytres ont très rarement des côtes longitudinales.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -634,13 +657,48 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Morphologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Callipogonini sont reconnaissables parmi les autres Prioninae pour le prothorax large et rectangulaire chez les mâles, souvent avec aussi deux plaques triangulaires luisantes sur le disque, et le troisième article des antennes très allongé. Ils diffèrent des Macrotomini, avec lesquels ils sont étroitement alliés, pour avoir les yeux fortement réniformes. Les élytres ont très rarement des côtes longitudinales.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Callipogonini</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callipogonini</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Les Callipogonini sont répandus surtout en Amérique du Sud, et en Afrique. Sur les autres continents ils ont une diffusion plus limitée :  en Amérique du Nord, Europe et Moyen-Orient ne sont présentes que quelques espèces du genre Ergates, tandis qu'en Asie orientale (kraï du Primorie) n'existe qu'une seule espèce endémique de Callipogon.
-En France on rencontre l'espèce suivante[2],[3]:
+En France on rencontre l'espèce suivante,:
 genre Ergates Serville, 1832
 Ergates faber (Linné, 1758)</t>
         </is>
